--- a/PositiveEdu.Admin/App_Data/Record.xlsx
+++ b/PositiveEdu.Admin/App_Data/Record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24285" windowHeight="12465"/>
+    <workbookView windowWidth="22488" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -60,6 +60,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -68,10 +75,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,33 +105,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,7 +121,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,9 +136,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,8 +150,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,37 +160,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,150 +203,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -362,7 +218,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,19 +314,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,26 +415,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,17 +445,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,20 +476,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,133 +517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -976,12 +976,12 @@
   <dimension ref="A1:C500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="12.8916666666667"/>
+    <col min="2" max="2" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1013,11 +1013,11 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">IF(MOD(ROW(),2)=0,23,RANDBETWEEN(23,30))</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <f ca="1">IF(MOD(ROW(),2)=0,23,RANDBETWEEN(23,30))</f>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:3">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C5">
         <f ca="1" t="shared" si="0"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C7">
         <f ca="1" t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C9">
         <f ca="1" t="shared" si="0"/>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C11">
         <f ca="1" t="shared" si="0"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="C13">
         <f ca="1" t="shared" si="0"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C15">
         <f ca="1" t="shared" si="2"/>
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C21">
         <f ca="1" t="shared" si="4"/>
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="C23">
         <f ca="1" t="shared" si="4"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="C27">
         <f ca="1" t="shared" si="4"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="C29">
         <f ca="1" t="shared" si="4"/>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C31">
         <f ca="1" t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C33">
         <f ca="1" t="shared" si="6"/>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="C35">
         <f ca="1" t="shared" si="6"/>
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C39">
         <f ca="1" t="shared" si="6"/>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="C41">
         <f ca="1" t="shared" si="8"/>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="C43">
         <f ca="1" t="shared" si="8"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="C45">
         <f ca="1" t="shared" si="8"/>
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="C47">
         <f ca="1" t="shared" si="8"/>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:3">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="C49">
         <f ca="1" t="shared" si="8"/>
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C51">
         <f ca="1" t="shared" si="10"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C53">
         <f ca="1" t="shared" si="10"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="C55">
         <f ca="1" t="shared" si="10"/>
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="C57">
         <f ca="1" t="shared" si="10"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C59">
         <f ca="1" t="shared" si="10"/>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="C61">
         <f ca="1" t="shared" si="12"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="C63">
         <f ca="1" t="shared" si="12"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C65">
         <f ca="1" t="shared" si="12"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="C67">
         <f ca="1" t="shared" si="12"/>
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:3">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C69">
         <f ca="1" t="shared" si="12"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:3">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C71">
         <f ca="1" t="shared" si="14"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:3">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="C73">
         <f ca="1" t="shared" si="14"/>
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="15" spans="1:3">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="C77">
         <f ca="1" t="shared" si="14"/>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:3">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C79">
         <f ca="1" t="shared" si="14"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="15" spans="1:3">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C81">
         <f ca="1" t="shared" si="16"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="15" spans="1:3">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="C83">
         <f ca="1" t="shared" si="16"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="15" spans="1:3">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="C85">
         <f ca="1" t="shared" si="16"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" ht="15" spans="1:3">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="C87">
         <f ca="1" t="shared" si="16"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="15" spans="1:3">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="C89">
         <f ca="1" t="shared" si="16"/>
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" ht="15" spans="1:3">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="C91">
         <f ca="1" t="shared" si="18"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="15" spans="1:3">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="C93">
         <f ca="1" t="shared" si="18"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="15" spans="1:3">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="C95">
         <f ca="1" t="shared" si="18"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="15" spans="1:3">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="C97">
         <f ca="1" t="shared" si="18"/>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="15" spans="1:3">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C101">
         <f ca="1" t="shared" si="20"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" ht="15" spans="1:3">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="C103">
         <f ca="1" t="shared" si="20"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="15" spans="1:3">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="C105">
         <f ca="1" t="shared" si="20"/>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" ht="15" spans="1:3">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="C107">
         <f ca="1" t="shared" si="20"/>
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="15" spans="1:3">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="C109">
         <f ca="1" t="shared" si="20"/>
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" ht="15" spans="1:3">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C111">
         <f ca="1" t="shared" si="22"/>
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" ht="15" spans="1:3">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="C113">
         <f ca="1" t="shared" si="22"/>
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" ht="15" spans="1:3">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="C115">
         <f ca="1" t="shared" si="22"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" ht="15" spans="1:3">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="C117">
         <f ca="1" t="shared" si="22"/>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" ht="15" spans="1:3">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="C121">
         <f ca="1" t="shared" si="24"/>
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" ht="15" spans="1:3">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="C123">
         <f ca="1" t="shared" si="24"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" ht="15" spans="1:3">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="C125">
         <f ca="1" t="shared" si="24"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" ht="15" spans="1:3">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="C127">
         <f ca="1" t="shared" si="24"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" ht="15" spans="1:3">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="C129">
         <f ca="1" t="shared" si="24"/>
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" ht="15" spans="1:3">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="C131">
         <f ca="1" t="shared" si="26"/>
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" ht="15" spans="1:3">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C133">
         <f ca="1" t="shared" si="26"/>
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" ht="15" spans="1:3">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="C139">
         <f ca="1" t="shared" si="26"/>
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" ht="15" spans="1:3">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C141">
         <f ca="1" t="shared" si="28"/>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142" ht="15" spans="1:3">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="C143">
         <f ca="1" t="shared" si="28"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" ht="15" spans="1:3">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C145">
         <f ca="1" t="shared" si="28"/>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146" ht="15" spans="1:3">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C147">
         <f ca="1" t="shared" si="28"/>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" ht="15" spans="1:3">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="C151">
         <f ca="1" t="shared" si="30"/>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" ht="15" spans="1:3">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="C153">
         <f ca="1" t="shared" si="30"/>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154" ht="15" spans="1:3">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="C155">
         <f ca="1" t="shared" si="30"/>
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" ht="15" spans="1:3">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="C157">
         <f ca="1" t="shared" si="30"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158" ht="15" spans="1:3">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="C159">
         <f ca="1" t="shared" si="30"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160" ht="15" spans="1:3">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C161">
         <f ca="1" t="shared" si="32"/>
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162" ht="15" spans="1:3">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="C163">
         <f ca="1" t="shared" si="32"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164" ht="15" spans="1:3">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="C165">
         <f ca="1" t="shared" si="32"/>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="166" ht="15" spans="1:3">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C167">
         <f ca="1" t="shared" si="32"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168" ht="15" spans="1:3">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="C169">
         <f ca="1" t="shared" si="32"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170" ht="15" spans="1:3">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="C171">
         <f ca="1" t="shared" si="34"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" ht="15" spans="1:3">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="C173">
         <f ca="1" t="shared" si="34"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="174" ht="15" spans="1:3">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="C175">
         <f ca="1" t="shared" si="34"/>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176" ht="15" spans="1:3">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="C177">
         <f ca="1" t="shared" si="34"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" ht="15" spans="1:3">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="C179">
         <f ca="1" t="shared" si="34"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="180" ht="15" spans="1:3">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="C183">
         <f ca="1" t="shared" si="36"/>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" ht="15" spans="1:3">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="C185">
         <f ca="1" t="shared" si="36"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="186" ht="15" spans="1:3">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="C187">
         <f ca="1" t="shared" si="36"/>
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="188" ht="15" spans="1:3">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="C189">
         <f ca="1" t="shared" si="36"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190" ht="15" spans="1:3">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="C193">
         <f ca="1" t="shared" si="38"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="194" ht="15" spans="1:3">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="C195">
         <f ca="1" t="shared" si="38"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="196" ht="15" spans="1:3">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="C197">
         <f ca="1" t="shared" si="38"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="198" ht="15" spans="1:3">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="C199">
         <f ca="1" t="shared" si="38"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="200" ht="15" spans="1:3">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C201">
         <f ca="1" t="shared" si="40"/>
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202" ht="15" spans="1:3">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="C203">
         <f ca="1" t="shared" si="40"/>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204" ht="15" spans="1:3">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="C205">
         <f ca="1" t="shared" si="40"/>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="206" ht="15" spans="1:3">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="C207">
         <f ca="1" t="shared" si="40"/>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208" ht="15" spans="1:3">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="C209">
         <f ca="1" t="shared" si="40"/>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="210" ht="15" spans="1:3">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="C211">
         <f ca="1" t="shared" si="42"/>
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="212" ht="15" spans="1:3">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="C215">
         <f ca="1" t="shared" si="42"/>
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="216" ht="15" spans="1:3">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="C217">
         <f ca="1" t="shared" si="42"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="218" ht="15" spans="1:3">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="C219">
         <f ca="1" t="shared" si="42"/>
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="220" ht="15" spans="1:3">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="C221">
         <f ca="1" t="shared" si="44"/>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="222" ht="15" spans="1:3">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="C225">
         <f ca="1" t="shared" si="44"/>
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="226" ht="15" spans="1:3">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="C229">
         <f ca="1" t="shared" si="44"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="230" ht="15" spans="1:3">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="C231">
         <f ca="1" t="shared" si="46"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="232" ht="15" spans="1:3">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="C233">
         <f ca="1" t="shared" si="46"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="234" ht="15" spans="1:3">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="C235">
         <f ca="1" t="shared" si="46"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="236" ht="15" spans="1:3">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="C237">
         <f ca="1" t="shared" si="46"/>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="238" ht="15" spans="1:3">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="C239">
         <f ca="1" t="shared" si="46"/>
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="240" ht="15" spans="1:3">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="C241">
         <f ca="1" t="shared" si="48"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="242" ht="15" spans="1:3">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="C243">
         <f ca="1" t="shared" si="48"/>
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="244" ht="15" spans="1:3">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="C245">
         <f ca="1" t="shared" si="48"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="246" ht="15" spans="1:3">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="C247">
         <f ca="1" t="shared" si="48"/>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="248" ht="15" spans="1:3">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="C249">
         <f ca="1" t="shared" si="48"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="250" ht="15" spans="1:3">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="C253">
         <f ca="1" t="shared" si="50"/>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="254" ht="15" spans="1:3">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="C257">
         <f ca="1" t="shared" si="50"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="258" ht="15" spans="1:3">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="C259">
         <f ca="1" t="shared" si="50"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="260" ht="15" spans="1:3">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C263">
         <f ca="1" t="shared" si="52"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="264" ht="15" spans="1:3">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="C265">
         <f ca="1" t="shared" si="52"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="266" ht="15" spans="1:3">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="C267">
         <f ca="1" t="shared" si="52"/>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="268" ht="15" spans="1:3">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="C273">
         <f ca="1" t="shared" si="54"/>
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="274" ht="15" spans="1:3">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="C275">
         <f ca="1" t="shared" si="54"/>
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="276" ht="15" spans="1:3">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="C277">
         <f ca="1" t="shared" si="54"/>
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="278" ht="15" spans="1:3">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="C279">
         <f ca="1" t="shared" si="54"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="280" ht="15" spans="1:3">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="C281">
         <f ca="1" t="shared" si="56"/>
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="282" ht="15" spans="1:3">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="C283">
         <f ca="1" t="shared" si="56"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="284" ht="15" spans="1:3">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="C285">
         <f ca="1" t="shared" si="56"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="286" ht="15" spans="1:3">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="C287">
         <f ca="1" t="shared" si="56"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="288" ht="15" spans="1:3">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="C289">
         <f ca="1" t="shared" si="56"/>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="290" ht="15" spans="1:3">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="C291">
         <f ca="1" t="shared" si="58"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="292" ht="15" spans="1:3">
@@ -4787,7 +4787,7 @@
       </c>
       <c r="C293">
         <f ca="1" t="shared" si="58"/>
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="294" ht="15" spans="1:3">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="C295">
         <f ca="1" t="shared" si="58"/>
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="296" ht="15" spans="1:3">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="C297">
         <f ca="1" t="shared" si="58"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="298" ht="15" spans="1:3">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="C299">
         <f ca="1" t="shared" si="58"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="300" ht="15" spans="1:3">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="C301">
         <f ca="1" t="shared" si="60"/>
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="302" ht="15" spans="1:3">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="C303">
         <f ca="1" t="shared" si="60"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="304" ht="15" spans="1:3">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="C305">
         <f ca="1" t="shared" si="60"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="306" ht="15" spans="1:3">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="C307">
         <f ca="1" t="shared" si="60"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="308" ht="15" spans="1:3">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="C309">
         <f ca="1" t="shared" si="60"/>
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="310" ht="15" spans="1:3">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="C311">
         <f ca="1" t="shared" si="62"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="312" ht="15" spans="1:3">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="C313">
         <f ca="1" t="shared" si="62"/>
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="314" ht="15" spans="1:3">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="C315">
         <f ca="1" t="shared" si="62"/>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="316" ht="15" spans="1:3">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="C317">
         <f ca="1" t="shared" si="62"/>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="318" ht="15" spans="1:3">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="C321">
         <f ca="1" t="shared" si="64"/>
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="322" ht="15" spans="1:3">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="C323">
         <f ca="1" t="shared" si="64"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="324" ht="15" spans="1:3">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="C325">
         <f ca="1" t="shared" si="64"/>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="326" ht="15" spans="1:3">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="C327">
         <f ca="1" t="shared" si="64"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="328" ht="15" spans="1:3">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="C329">
         <f ca="1" t="shared" si="64"/>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="330" ht="15" spans="1:3">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="C331">
         <f ca="1" t="shared" si="66"/>
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="332" ht="15" spans="1:3">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="C333">
         <f ca="1" t="shared" si="66"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="334" ht="15" spans="1:3">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="C335">
         <f ca="1" t="shared" si="66"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="336" ht="15" spans="1:3">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="C339">
         <f ca="1" t="shared" si="66"/>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="340" ht="15" spans="1:3">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="C341">
         <f ca="1" t="shared" si="68"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="342" ht="15" spans="1:3">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="C343">
         <f ca="1" t="shared" si="68"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="344" ht="15" spans="1:3">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="C345">
         <f ca="1" t="shared" si="68"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="346" ht="15" spans="1:3">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="C347">
         <f ca="1" t="shared" si="68"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="348" ht="15" spans="1:3">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="C349">
         <f ca="1" t="shared" si="68"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="350" ht="15" spans="1:3">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="C351">
         <f ca="1" t="shared" si="70"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="352" ht="15" spans="1:3">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="C353">
         <f ca="1" t="shared" si="70"/>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="354" ht="15" spans="1:3">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="C355">
         <f ca="1" t="shared" si="70"/>
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="356" ht="15" spans="1:3">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="C357">
         <f ca="1" t="shared" si="70"/>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="358" ht="15" spans="1:3">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="C359">
         <f ca="1" t="shared" si="70"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="360" ht="15" spans="1:3">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="C361">
         <f ca="1" t="shared" si="72"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="362" ht="15" spans="1:3">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="C363">
         <f ca="1" t="shared" si="72"/>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="364" ht="15" spans="1:3">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="C367">
         <f ca="1" t="shared" si="72"/>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="368" ht="15" spans="1:3">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="C369">
         <f ca="1" t="shared" si="72"/>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="370" ht="15" spans="1:3">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="C371">
         <f ca="1" t="shared" si="74"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="372" ht="15" spans="1:3">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="C373">
         <f ca="1" t="shared" si="74"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="374" ht="15" spans="1:3">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="C375">
         <f ca="1" t="shared" si="74"/>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="376" ht="15" spans="1:3">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="C377">
         <f ca="1" t="shared" si="74"/>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="378" ht="15" spans="1:3">
@@ -5905,7 +5905,7 @@
       </c>
       <c r="C379">
         <f ca="1" t="shared" si="74"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="380" ht="15" spans="1:3">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="C381">
         <f ca="1" t="shared" si="76"/>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="382" ht="15" spans="1:3">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="C383">
         <f ca="1" t="shared" si="76"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="384" ht="15" spans="1:3">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="C385">
         <f ca="1" t="shared" si="76"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="386" ht="15" spans="1:3">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="C387">
         <f ca="1" t="shared" si="76"/>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="388" ht="15" spans="1:3">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="C389">
         <f ca="1" t="shared" si="76"/>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="390" ht="15" spans="1:3">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="C391">
         <f ca="1" t="shared" si="78"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="392" ht="15" spans="1:3">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="C393">
         <f ca="1" t="shared" si="78"/>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="394" ht="15" spans="1:3">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="C395">
         <f ca="1" t="shared" si="78"/>
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="396" ht="15" spans="1:3">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="C397">
         <f ca="1" t="shared" si="78"/>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="398" ht="15" spans="1:3">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="C399">
         <f ca="1" t="shared" si="78"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="400" ht="15" spans="1:3">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="C405">
         <f ca="1" t="shared" si="80"/>
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="406" ht="15" spans="1:3">
@@ -6321,7 +6321,7 @@
       </c>
       <c r="C411">
         <f ca="1" t="shared" si="82"/>
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="412" ht="15" spans="1:3">
@@ -6347,7 +6347,7 @@
       </c>
       <c r="C413">
         <f ca="1" t="shared" si="82"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="414" ht="15" spans="1:3">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="C415">
         <f ca="1" t="shared" si="82"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="416" ht="15" spans="1:3">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="C417">
         <f ca="1" t="shared" si="82"/>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="418" ht="15" spans="1:3">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="C419">
         <f ca="1" t="shared" si="82"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="420" ht="15" spans="1:3">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="C421">
         <f ca="1" t="shared" si="84"/>
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="422" ht="15" spans="1:3">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="C423">
         <f ca="1" t="shared" si="84"/>
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="424" ht="15" spans="1:3">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="C425">
         <f ca="1" t="shared" si="84"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="426" ht="15" spans="1:3">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="C427">
         <f ca="1" t="shared" si="84"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="428" ht="15" spans="1:3">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="C429">
         <f ca="1" t="shared" si="84"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="430" ht="15" spans="1:3">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="C431">
         <f ca="1" t="shared" si="86"/>
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="432" ht="15" spans="1:3">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="C433">
         <f ca="1" t="shared" si="86"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="434" ht="15" spans="1:3">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="C439">
         <f ca="1" t="shared" si="86"/>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="440" ht="15" spans="1:3">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="C441">
         <f ca="1" t="shared" si="88"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="442" ht="15" spans="1:3">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="C443">
         <f ca="1" t="shared" si="88"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="444" ht="15" spans="1:3">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="C447">
         <f ca="1" t="shared" si="88"/>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="448" ht="15" spans="1:3">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="C449">
         <f ca="1" t="shared" si="88"/>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="450" ht="15" spans="1:3">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="C451">
         <f ca="1" t="shared" si="90"/>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="452" ht="15" spans="1:3">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="C453">
         <f ca="1" t="shared" si="90"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="454" ht="15" spans="1:3">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="C455">
         <f ca="1" t="shared" si="90"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="456" ht="15" spans="1:3">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="C459">
         <f ca="1" t="shared" si="90"/>
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="460" ht="15" spans="1:3">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="C461">
         <f ca="1" t="shared" si="92"/>
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="462" ht="15" spans="1:3">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="C463">
         <f ca="1" t="shared" si="92"/>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="464" ht="15" spans="1:3">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="C465">
         <f ca="1" t="shared" si="92"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="466" ht="15" spans="1:3">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="C467">
         <f ca="1" t="shared" si="92"/>
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="468" ht="15" spans="1:3">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="C469">
         <f ca="1" t="shared" si="92"/>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="470" ht="15" spans="1:3">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="C471">
         <f ca="1" t="shared" si="94"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="472" ht="15" spans="1:3">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="C473">
         <f ca="1" t="shared" si="94"/>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="474" ht="15" spans="1:3">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="C475">
         <f ca="1" t="shared" si="94"/>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="476" ht="15" spans="1:3">
@@ -7179,7 +7179,7 @@
       </c>
       <c r="C477">
         <f ca="1" t="shared" si="94"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="478" ht="15" spans="1:3">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="C479">
         <f ca="1" t="shared" si="94"/>
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="480" ht="15" spans="1:3">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="C481">
         <f ca="1" t="shared" si="96"/>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="482" ht="15" spans="1:3">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="C483">
         <f ca="1" t="shared" si="96"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="484" ht="15" spans="1:3">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="C485">
         <f ca="1" t="shared" si="96"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="486" ht="15" spans="1:3">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="C487">
         <f ca="1" t="shared" si="96"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="488" ht="15" spans="1:3">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="C489">
         <f ca="1" t="shared" si="96"/>
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="490" ht="15" spans="1:3">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="C491">
         <f ca="1" t="shared" si="98"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="492" ht="15" spans="1:3">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="C493">
         <f ca="1" t="shared" si="98"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="494" ht="15" spans="1:3">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="C495">
         <f ca="1" t="shared" si="98"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="496" ht="15" spans="1:3">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="C499">
         <f ca="1" t="shared" si="98"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="500" ht="15" spans="1:3">

--- a/PositiveEdu.Admin/App_Data/Record.xlsx
+++ b/PositiveEdu.Admin/App_Data/Record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347"/>
+    <workbookView windowWidth="24285" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -60,13 +60,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -75,19 +68,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,15 +89,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,7 +123,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,9 +138,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,9 +152,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,38 +161,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +203,150 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -218,37 +362,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,133 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,17 +415,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,22 +454,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,24 +480,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,133 +517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -976,12 +976,12 @@
   <dimension ref="A1:C500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="12.8888888888889"/>
+    <col min="2" max="2" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1013,11 +1013,11 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">IF(MOD(ROW(),2)=0,23,RANDBETWEEN(23,30))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <f ca="1">IF(MOD(ROW(),2)=0,23,RANDBETWEEN(23,30))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:3">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C5">
         <f ca="1" t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C7">
         <f ca="1" t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C9">
         <f ca="1" t="shared" si="0"/>
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C11">
         <f ca="1" t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="C13">
         <f ca="1" t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C15">
         <f ca="1" t="shared" si="2"/>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C21">
         <f ca="1" t="shared" si="4"/>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="C23">
         <f ca="1" t="shared" si="4"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="C27">
         <f ca="1" t="shared" si="4"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="C29">
         <f ca="1" t="shared" si="4"/>
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C31">
         <f ca="1" t="shared" si="6"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C33">
         <f ca="1" t="shared" si="6"/>
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="C35">
         <f ca="1" t="shared" si="6"/>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C39">
         <f ca="1" t="shared" si="6"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="C41">
         <f ca="1" t="shared" si="8"/>
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="C43">
         <f ca="1" t="shared" si="8"/>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="C45">
         <f ca="1" t="shared" si="8"/>
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="C47">
         <f ca="1" t="shared" si="8"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:3">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="C49">
         <f ca="1" t="shared" si="8"/>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C51">
         <f ca="1" t="shared" si="10"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C53">
         <f ca="1" t="shared" si="10"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="C55">
         <f ca="1" t="shared" si="10"/>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="C57">
         <f ca="1" t="shared" si="10"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C59">
         <f ca="1" t="shared" si="10"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="C61">
         <f ca="1" t="shared" si="12"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="C63">
         <f ca="1" t="shared" si="12"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C65">
         <f ca="1" t="shared" si="12"/>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="C67">
         <f ca="1" t="shared" si="12"/>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:3">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C69">
         <f ca="1" t="shared" si="12"/>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:3">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C71">
         <f ca="1" t="shared" si="14"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:3">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="C73">
         <f ca="1" t="shared" si="14"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="15" spans="1:3">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="C77">
         <f ca="1" t="shared" si="14"/>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:3">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C79">
         <f ca="1" t="shared" si="14"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="15" spans="1:3">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C81">
         <f ca="1" t="shared" si="16"/>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="15" spans="1:3">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="C83">
         <f ca="1" t="shared" si="16"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="15" spans="1:3">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="C85">
         <f ca="1" t="shared" si="16"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="15" spans="1:3">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="C87">
         <f ca="1" t="shared" si="16"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" ht="15" spans="1:3">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="C89">
         <f ca="1" t="shared" si="16"/>
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="15" spans="1:3">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="C91">
         <f ca="1" t="shared" si="18"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" ht="15" spans="1:3">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="C93">
         <f ca="1" t="shared" si="18"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="15" spans="1:3">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="C95">
         <f ca="1" t="shared" si="18"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="15" spans="1:3">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="C97">
         <f ca="1" t="shared" si="18"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="15" spans="1:3">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C101">
         <f ca="1" t="shared" si="20"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="15" spans="1:3">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="C103">
         <f ca="1" t="shared" si="20"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" ht="15" spans="1:3">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="C105">
         <f ca="1" t="shared" si="20"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" ht="15" spans="1:3">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="C107">
         <f ca="1" t="shared" si="20"/>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" ht="15" spans="1:3">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="C109">
         <f ca="1" t="shared" si="20"/>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" ht="15" spans="1:3">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C111">
         <f ca="1" t="shared" si="22"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" ht="15" spans="1:3">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="C113">
         <f ca="1" t="shared" si="22"/>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" ht="15" spans="1:3">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="C115">
         <f ca="1" t="shared" si="22"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" ht="15" spans="1:3">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="C117">
         <f ca="1" t="shared" si="22"/>
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" ht="15" spans="1:3">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="C121">
         <f ca="1" t="shared" si="24"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" ht="15" spans="1:3">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="C123">
         <f ca="1" t="shared" si="24"/>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" ht="15" spans="1:3">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="C125">
         <f ca="1" t="shared" si="24"/>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" ht="15" spans="1:3">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="C127">
         <f ca="1" t="shared" si="24"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128" ht="15" spans="1:3">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="C129">
         <f ca="1" t="shared" si="24"/>
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" ht="15" spans="1:3">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="C131">
         <f ca="1" t="shared" si="26"/>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" ht="15" spans="1:3">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C133">
         <f ca="1" t="shared" si="26"/>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" ht="15" spans="1:3">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="C139">
         <f ca="1" t="shared" si="26"/>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" ht="15" spans="1:3">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C141">
         <f ca="1" t="shared" si="28"/>
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" ht="15" spans="1:3">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="C143">
         <f ca="1" t="shared" si="28"/>
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" ht="15" spans="1:3">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C145">
         <f ca="1" t="shared" si="28"/>
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" ht="15" spans="1:3">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C147">
         <f ca="1" t="shared" si="28"/>
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" ht="15" spans="1:3">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="C151">
         <f ca="1" t="shared" si="30"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152" ht="15" spans="1:3">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="C153">
         <f ca="1" t="shared" si="30"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" ht="15" spans="1:3">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="C155">
         <f ca="1" t="shared" si="30"/>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156" ht="15" spans="1:3">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="C157">
         <f ca="1" t="shared" si="30"/>
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" ht="15" spans="1:3">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="C159">
         <f ca="1" t="shared" si="30"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" ht="15" spans="1:3">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C161">
         <f ca="1" t="shared" si="32"/>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162" ht="15" spans="1:3">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="C163">
         <f ca="1" t="shared" si="32"/>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164" ht="15" spans="1:3">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="C165">
         <f ca="1" t="shared" si="32"/>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" ht="15" spans="1:3">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C167">
         <f ca="1" t="shared" si="32"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168" ht="15" spans="1:3">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="C169">
         <f ca="1" t="shared" si="32"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170" ht="15" spans="1:3">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="C171">
         <f ca="1" t="shared" si="34"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" ht="15" spans="1:3">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="C173">
         <f ca="1" t="shared" si="34"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174" ht="15" spans="1:3">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="C175">
         <f ca="1" t="shared" si="34"/>
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="176" ht="15" spans="1:3">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="C177">
         <f ca="1" t="shared" si="34"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178" ht="15" spans="1:3">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="C179">
         <f ca="1" t="shared" si="34"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="180" ht="15" spans="1:3">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="C183">
         <f ca="1" t="shared" si="36"/>
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="184" ht="15" spans="1:3">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="C185">
         <f ca="1" t="shared" si="36"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="186" ht="15" spans="1:3">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="C187">
         <f ca="1" t="shared" si="36"/>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="188" ht="15" spans="1:3">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="C189">
         <f ca="1" t="shared" si="36"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="190" ht="15" spans="1:3">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="C193">
         <f ca="1" t="shared" si="38"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="194" ht="15" spans="1:3">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="C195">
         <f ca="1" t="shared" si="38"/>
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="196" ht="15" spans="1:3">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="C197">
         <f ca="1" t="shared" si="38"/>
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" ht="15" spans="1:3">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="C199">
         <f ca="1" t="shared" si="38"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="200" ht="15" spans="1:3">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C201">
         <f ca="1" t="shared" si="40"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="202" ht="15" spans="1:3">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="C203">
         <f ca="1" t="shared" si="40"/>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="204" ht="15" spans="1:3">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="C205">
         <f ca="1" t="shared" si="40"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="206" ht="15" spans="1:3">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="C207">
         <f ca="1" t="shared" si="40"/>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="208" ht="15" spans="1:3">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="C209">
         <f ca="1" t="shared" si="40"/>
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="210" ht="15" spans="1:3">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="C211">
         <f ca="1" t="shared" si="42"/>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="212" ht="15" spans="1:3">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="C215">
         <f ca="1" t="shared" si="42"/>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="216" ht="15" spans="1:3">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="C217">
         <f ca="1" t="shared" si="42"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218" ht="15" spans="1:3">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="C219">
         <f ca="1" t="shared" si="42"/>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="220" ht="15" spans="1:3">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="C221">
         <f ca="1" t="shared" si="44"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="222" ht="15" spans="1:3">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="C225">
         <f ca="1" t="shared" si="44"/>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="226" ht="15" spans="1:3">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="C229">
         <f ca="1" t="shared" si="44"/>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="230" ht="15" spans="1:3">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="C231">
         <f ca="1" t="shared" si="46"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="232" ht="15" spans="1:3">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="C233">
         <f ca="1" t="shared" si="46"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="234" ht="15" spans="1:3">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="C235">
         <f ca="1" t="shared" si="46"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236" ht="15" spans="1:3">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="C237">
         <f ca="1" t="shared" si="46"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="238" ht="15" spans="1:3">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="C239">
         <f ca="1" t="shared" si="46"/>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="240" ht="15" spans="1:3">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="C241">
         <f ca="1" t="shared" si="48"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="242" ht="15" spans="1:3">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="C243">
         <f ca="1" t="shared" si="48"/>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="244" ht="15" spans="1:3">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="C245">
         <f ca="1" t="shared" si="48"/>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="246" ht="15" spans="1:3">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="C247">
         <f ca="1" t="shared" si="48"/>
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="248" ht="15" spans="1:3">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="C249">
         <f ca="1" t="shared" si="48"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="250" ht="15" spans="1:3">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="C253">
         <f ca="1" t="shared" si="50"/>
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="254" ht="15" spans="1:3">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="C257">
         <f ca="1" t="shared" si="50"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="258" ht="15" spans="1:3">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="C259">
         <f ca="1" t="shared" si="50"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="260" ht="15" spans="1:3">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C263">
         <f ca="1" t="shared" si="52"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="264" ht="15" spans="1:3">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="C265">
         <f ca="1" t="shared" si="52"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="266" ht="15" spans="1:3">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="C267">
         <f ca="1" t="shared" si="52"/>
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="268" ht="15" spans="1:3">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="C273">
         <f ca="1" t="shared" si="54"/>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="274" ht="15" spans="1:3">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="C275">
         <f ca="1" t="shared" si="54"/>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="276" ht="15" spans="1:3">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="C277">
         <f ca="1" t="shared" si="54"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="278" ht="15" spans="1:3">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="C279">
         <f ca="1" t="shared" si="54"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="280" ht="15" spans="1:3">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="C281">
         <f ca="1" t="shared" si="56"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="282" ht="15" spans="1:3">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="C283">
         <f ca="1" t="shared" si="56"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="284" ht="15" spans="1:3">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="C285">
         <f ca="1" t="shared" si="56"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="286" ht="15" spans="1:3">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="C287">
         <f ca="1" t="shared" si="56"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288" ht="15" spans="1:3">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="C289">
         <f ca="1" t="shared" si="56"/>
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" ht="15" spans="1:3">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="C291">
         <f ca="1" t="shared" si="58"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="292" ht="15" spans="1:3">
@@ -4787,7 +4787,7 @@
       </c>
       <c r="C293">
         <f ca="1" t="shared" si="58"/>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="294" ht="15" spans="1:3">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="C295">
         <f ca="1" t="shared" si="58"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="296" ht="15" spans="1:3">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="C297">
         <f ca="1" t="shared" si="58"/>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="298" ht="15" spans="1:3">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="C299">
         <f ca="1" t="shared" si="58"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="300" ht="15" spans="1:3">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="C301">
         <f ca="1" t="shared" si="60"/>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="302" ht="15" spans="1:3">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="C303">
         <f ca="1" t="shared" si="60"/>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="304" ht="15" spans="1:3">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="C305">
         <f ca="1" t="shared" si="60"/>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="306" ht="15" spans="1:3">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="C307">
         <f ca="1" t="shared" si="60"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="308" ht="15" spans="1:3">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="C309">
         <f ca="1" t="shared" si="60"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="310" ht="15" spans="1:3">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="C311">
         <f ca="1" t="shared" si="62"/>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="312" ht="15" spans="1:3">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="C313">
         <f ca="1" t="shared" si="62"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="314" ht="15" spans="1:3">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="C315">
         <f ca="1" t="shared" si="62"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="316" ht="15" spans="1:3">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="C317">
         <f ca="1" t="shared" si="62"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="318" ht="15" spans="1:3">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="C321">
         <f ca="1" t="shared" si="64"/>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="322" ht="15" spans="1:3">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="C323">
         <f ca="1" t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="324" ht="15" spans="1:3">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="C325">
         <f ca="1" t="shared" si="64"/>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="326" ht="15" spans="1:3">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="C327">
         <f ca="1" t="shared" si="64"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="328" ht="15" spans="1:3">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="C329">
         <f ca="1" t="shared" si="64"/>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="330" ht="15" spans="1:3">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="C331">
         <f ca="1" t="shared" si="66"/>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="332" ht="15" spans="1:3">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="C333">
         <f ca="1" t="shared" si="66"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="334" ht="15" spans="1:3">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="C335">
         <f ca="1" t="shared" si="66"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="336" ht="15" spans="1:3">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="C339">
         <f ca="1" t="shared" si="66"/>
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="340" ht="15" spans="1:3">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="C341">
         <f ca="1" t="shared" si="68"/>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="342" ht="15" spans="1:3">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="C343">
         <f ca="1" t="shared" si="68"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="344" ht="15" spans="1:3">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="C345">
         <f ca="1" t="shared" si="68"/>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="346" ht="15" spans="1:3">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="C347">
         <f ca="1" t="shared" si="68"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="348" ht="15" spans="1:3">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="C349">
         <f ca="1" t="shared" si="68"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="350" ht="15" spans="1:3">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="C351">
         <f ca="1" t="shared" si="70"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="352" ht="15" spans="1:3">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="C353">
         <f ca="1" t="shared" si="70"/>
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="354" ht="15" spans="1:3">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="C355">
         <f ca="1" t="shared" si="70"/>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="356" ht="15" spans="1:3">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="C357">
         <f ca="1" t="shared" si="70"/>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="358" ht="15" spans="1:3">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="C359">
         <f ca="1" t="shared" si="70"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="360" ht="15" spans="1:3">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="C361">
         <f ca="1" t="shared" si="72"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="362" ht="15" spans="1:3">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="C363">
         <f ca="1" t="shared" si="72"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="364" ht="15" spans="1:3">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="C367">
         <f ca="1" t="shared" si="72"/>
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="368" ht="15" spans="1:3">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="C369">
         <f ca="1" t="shared" si="72"/>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="370" ht="15" spans="1:3">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="C371">
         <f ca="1" t="shared" si="74"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="372" ht="15" spans="1:3">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="C373">
         <f ca="1" t="shared" si="74"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="374" ht="15" spans="1:3">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="C375">
         <f ca="1" t="shared" si="74"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="376" ht="15" spans="1:3">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="C377">
         <f ca="1" t="shared" si="74"/>
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="378" ht="15" spans="1:3">
@@ -5905,7 +5905,7 @@
       </c>
       <c r="C379">
         <f ca="1" t="shared" si="74"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="380" ht="15" spans="1:3">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="C381">
         <f ca="1" t="shared" si="76"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="382" ht="15" spans="1:3">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="C383">
         <f ca="1" t="shared" si="76"/>
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="384" ht="15" spans="1:3">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="C385">
         <f ca="1" t="shared" si="76"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="386" ht="15" spans="1:3">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="C387">
         <f ca="1" t="shared" si="76"/>
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="388" ht="15" spans="1:3">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="C389">
         <f ca="1" t="shared" si="76"/>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="390" ht="15" spans="1:3">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="C391">
         <f ca="1" t="shared" si="78"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="392" ht="15" spans="1:3">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="C393">
         <f ca="1" t="shared" si="78"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="394" ht="15" spans="1:3">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="C395">
         <f ca="1" t="shared" si="78"/>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="396" ht="15" spans="1:3">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="C397">
         <f ca="1" t="shared" si="78"/>
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="398" ht="15" spans="1:3">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="C399">
         <f ca="1" t="shared" si="78"/>
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="400" ht="15" spans="1:3">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="C405">
         <f ca="1" t="shared" si="80"/>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="406" ht="15" spans="1:3">
@@ -6321,7 +6321,7 @@
       </c>
       <c r="C411">
         <f ca="1" t="shared" si="82"/>
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="412" ht="15" spans="1:3">
@@ -6347,7 +6347,7 @@
       </c>
       <c r="C413">
         <f ca="1" t="shared" si="82"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="414" ht="15" spans="1:3">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="C415">
         <f ca="1" t="shared" si="82"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="416" ht="15" spans="1:3">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="C417">
         <f ca="1" t="shared" si="82"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="418" ht="15" spans="1:3">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="C419">
         <f ca="1" t="shared" si="82"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="420" ht="15" spans="1:3">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="C421">
         <f ca="1" t="shared" si="84"/>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="422" ht="15" spans="1:3">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="C423">
         <f ca="1" t="shared" si="84"/>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="424" ht="15" spans="1:3">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="C425">
         <f ca="1" t="shared" si="84"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="426" ht="15" spans="1:3">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="C427">
         <f ca="1" t="shared" si="84"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="428" ht="15" spans="1:3">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="C429">
         <f ca="1" t="shared" si="84"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="430" ht="15" spans="1:3">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="C431">
         <f ca="1" t="shared" si="86"/>
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="432" ht="15" spans="1:3">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="C433">
         <f ca="1" t="shared" si="86"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="434" ht="15" spans="1:3">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="C439">
         <f ca="1" t="shared" si="86"/>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="440" ht="15" spans="1:3">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="C441">
         <f ca="1" t="shared" si="88"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="442" ht="15" spans="1:3">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="C443">
         <f ca="1" t="shared" si="88"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="444" ht="15" spans="1:3">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="C447">
         <f ca="1" t="shared" si="88"/>
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="448" ht="15" spans="1:3">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="C449">
         <f ca="1" t="shared" si="88"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="450" ht="15" spans="1:3">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="C451">
         <f ca="1" t="shared" si="90"/>
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="452" ht="15" spans="1:3">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="C453">
         <f ca="1" t="shared" si="90"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="454" ht="15" spans="1:3">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="C455">
         <f ca="1" t="shared" si="90"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="456" ht="15" spans="1:3">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="C459">
         <f ca="1" t="shared" si="90"/>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="460" ht="15" spans="1:3">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="C461">
         <f ca="1" t="shared" si="92"/>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="462" ht="15" spans="1:3">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="C463">
         <f ca="1" t="shared" si="92"/>
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="464" ht="15" spans="1:3">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="C465">
         <f ca="1" t="shared" si="92"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="466" ht="15" spans="1:3">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="C467">
         <f ca="1" t="shared" si="92"/>
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="468" ht="15" spans="1:3">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="C469">
         <f ca="1" t="shared" si="92"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="470" ht="15" spans="1:3">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="C471">
         <f ca="1" t="shared" si="94"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="472" ht="15" spans="1:3">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="C473">
         <f ca="1" t="shared" si="94"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="474" ht="15" spans="1:3">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="C475">
         <f ca="1" t="shared" si="94"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="476" ht="15" spans="1:3">
@@ -7179,7 +7179,7 @@
       </c>
       <c r="C477">
         <f ca="1" t="shared" si="94"/>
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="478" ht="15" spans="1:3">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="C479">
         <f ca="1" t="shared" si="94"/>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="480" ht="15" spans="1:3">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="C481">
         <f ca="1" t="shared" si="96"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="482" ht="15" spans="1:3">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="C483">
         <f ca="1" t="shared" si="96"/>
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="484" ht="15" spans="1:3">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="C485">
         <f ca="1" t="shared" si="96"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="486" ht="15" spans="1:3">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="C487">
         <f ca="1" t="shared" si="96"/>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="488" ht="15" spans="1:3">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="C489">
         <f ca="1" t="shared" si="96"/>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="490" ht="15" spans="1:3">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="C491">
         <f ca="1" t="shared" si="98"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="492" ht="15" spans="1:3">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="C493">
         <f ca="1" t="shared" si="98"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="494" ht="15" spans="1:3">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="C495">
         <f ca="1" t="shared" si="98"/>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="496" ht="15" spans="1:3">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="C499">
         <f ca="1" t="shared" si="98"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="500" ht="15" spans="1:3">
